--- a/biology/Origine et évolution du vivant/Chronologie_de_l'évolution_du_vivant/Chronologie_de_l'évolution_du_vivant.xlsx
+++ b/biology/Origine et évolution du vivant/Chronologie_de_l'évolution_du_vivant/Chronologie_de_l'évolution_du_vivant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27%C3%A9volution_du_vivant</t>
+          <t>Chronologie_de_l'évolution_du_vivant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,25 +490,27 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Chronologie de l'évolution du vivantvoir • discuter • modifier-4500 —–-4000 —–-3500 —–-3000 —–-2500 —–-2000 —–-1500 —–-1000 —–-500 —–0 —EauOrganismes unicellulairesPhotosynthèseProduction de dioxygèneEucaryotesOrganismes multicellulairesFaune silurienneDinosauresMammifèresFleurs ←Formation de la Terre (−4540)←Naissance de la vie←Bombardement←Grande Oxydation←Apparition de la sexualité←Expl. d'Avalon←Expl. cambrienne←Homo sapiensPhanérozoïqueProtérozoïqueArchéenHadéenMésoarchéenHuronienCryogénienAndéenKarooQuaternairesÉchelle : millions d'années.Orange : glaciationVoir aussi : la frise chronologique de l'Univers et Histoire de la Terre
 Cet article présente une chronologie de l'évolution du vivant.
 −4,54 milliards d'années : formation de la Terre
 −4,52 milliards d'années : formation de la Lune
-−4,4 milliards d'années : formation de l'hydrosphère[a] et de la croûte terrestre[1]
-−4,28 milliards d'années : plus anciennes formes de vie[2]
+−4,4 milliards d'années : formation de l'hydrosphère[a] et de la croûte terrestre
+−4,28 milliards d'années : plus anciennes formes de vie
 −4,1 milliards d'années : grand bombardement tardif
 −4 milliards d'années : apparition de la tectonique des plaques
-−3,8 milliards d'années : apparition des premières cellules alors que la température de surface est comprise entre 40 et 80 °C[3]
-−3,7 à −3,45 milliards d'années (absence de consensus scientifique) : apparition des premiers stromatolithes et de la photosynthèse anoxygénique[4],[5],[6]
+−3,8 milliards d'années : apparition des premières cellules alors que la température de surface est comprise entre 40 et 80 °C
+−3,7 à −3,45 milliards d'années (absence de consensus scientifique) : apparition des premiers stromatolithes et de la photosynthèse anoxygénique
 −3,2 milliards d'années : apparition des premiers acritarches
 −2,45 milliards d'années : apparition de la photosynthèse oxygénique
 −2,4 milliards d'années : Grande Oxydation et début de la glaciation huronienne
 −2,2 milliards d'années : transition procaryote-eucaryote (apparition des Grypania)
-−2,1 milliards d'années : apparition des premiers organismes multicellulaires (Gabonionta)[7]
+−2,1 milliards d'années : apparition des premiers organismes multicellulaires (Gabonionta)
 −1,8 milliard d'années : début du milliard ennuyeux, entre 1,8 et 0,8 Ga, caractérisé par une relative stabilité de l'atmosphère et un ralentissement apparent de l'évolution de la vie.
-−1,5 milliard d'années : apparition de la sexualité[8]
+−1,5 milliard d'années : apparition de la sexualité
 −1 milliard d'années : début de la Terre boule de neige
 −575 millions d'années : explosion de l'Édiacarien
 −555 millions d'années : apparition des triploblastiques[b]
